--- a/Reports/market-report.xlsx
+++ b/Reports/market-report.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iese365-my.sharepoint.com/personal/harel_lichtenstein_iese_net/Documents/Desktop/IESE/EMBA 2026/Term 5/Executive Management Simulation - B-E1/Session 1/Report Samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iese365-my.sharepoint.com/personal/harel_lichtenstein_iese_net/Documents/Desktop/AI Tests/EXSIM models/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{957C4553-7822-4A80-90ED-D50133D785F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D2BD1E-4E2D-4F81-BE85-92346B6F52F3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{0E13FF06-7916-4FF6-AB07-C9390D5EF2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1322040-CD27-4A4A-8795-66623673A84E}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="26400" windowHeight="18030" xr2:uid="{897A0256-0AF2-47DA-B4F3-F76820DE3FAE}"/>
+    <workbookView xWindow="12540" yWindow="1560" windowWidth="38280" windowHeight="18030" xr2:uid="{F9EBC692-E677-42E5-AF1A-FF0C02C58DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="175">
   <si>
     <t>Country: IESE EMBA BCN 26-1</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Market Report</t>
   </si>
   <si>
-    <t>Company:Company 3</t>
-  </si>
-  <si>
-    <t>Period: 6</t>
+    <t>Company:A3 - AirFlow Six</t>
+  </si>
+  <si>
+    <t>Period: 7</t>
   </si>
   <si>
     <t>Course: IESE EMBA BCN 26-1</t>
@@ -43,178 +43,508 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>Company 1 A</t>
-  </si>
-  <si>
-    <t>Company 2 A</t>
-  </si>
-  <si>
-    <t>Company 3 A</t>
-  </si>
-  <si>
-    <t>Company 4 A</t>
+    <t>A1 - Maison Sigma A</t>
+  </si>
+  <si>
+    <t>A2 - Odisseum A</t>
+  </si>
+  <si>
+    <t>A3 - AirFlow Six A</t>
+  </si>
+  <si>
+    <t>A4 - Electron A</t>
   </si>
   <si>
     <t>Center</t>
   </si>
   <si>
-    <t>25.0</t>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>16.1</t>
   </si>
   <si>
     <t>West</t>
   </si>
   <si>
+    <t>44.8</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
     <t>North</t>
   </si>
   <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>East</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>South</t>
   </si>
   <si>
-    <t/>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>31.9</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>28.2</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>40.5</t>
+  </si>
+  <si>
+    <t>39.8</t>
   </si>
   <si>
     <t xml:space="preserve">       Market Share Per Region Per Segment (%)    </t>
   </si>
   <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>40.7</t>
+  </si>
+  <si>
+    <t>49.8</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>26.6</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>35.4</t>
   </si>
   <si>
     <t xml:space="preserve">       Price    </t>
   </si>
   <si>
-    <t>68.00</t>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>82.00</t>
   </si>
   <si>
     <t>91.00</t>
   </si>
   <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Product Improvements    </t>
+  </si>
+  <si>
+    <t>Improvements</t>
+  </si>
+  <si>
+    <t>A1 - Maison Sigma - A</t>
+  </si>
+  <si>
+    <t>A2 - Odisseum - A</t>
+  </si>
+  <si>
+    <t>A3 - AirFlow Six - A</t>
+  </si>
+  <si>
+    <t>A4 - Electron - A</t>
+  </si>
+  <si>
+    <t>STAINLESS MATERIAL</t>
+  </si>
+  <si>
+    <t>​</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>RECYCLABLE MATERIALS</t>
+  </si>
+  <si>
+    <t>ENERGY EFFICIENCY</t>
+  </si>
+  <si>
+    <t>LIGHTER AND MORE COMPACT</t>
+  </si>
+  <si>
+    <t>IMPACT RESISTANCE</t>
+  </si>
+  <si>
+    <t>NOISE REDUCTION</t>
+  </si>
+  <si>
+    <t>IMPROVED BATTERY CAPACITY</t>
+  </si>
+  <si>
+    <t>SELF-CLEANING</t>
+  </si>
+  <si>
+    <t>SPEED SETTINGS</t>
+  </si>
+  <si>
+    <t>DIGITAL CONTROLS</t>
+  </si>
+  <si>
+    <t>VOICE ASSISTANCE INTEGRATION</t>
+  </si>
+  <si>
+    <t>AUTOMATION AND PROGRAMMABILITY</t>
+  </si>
+  <si>
+    <t>MULTIFUNCTIONAL ACCESSORIES</t>
+  </si>
+  <si>
+    <t>MAPPING TECHNOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Product Awareness Percentage Per Segment    </t>
+  </si>
+  <si>
+    <t>60.71</t>
+  </si>
+  <si>
+    <t>72.62</t>
+  </si>
+  <si>
+    <t>61.02</t>
+  </si>
+  <si>
+    <t>67.56</t>
+  </si>
+  <si>
+    <t>40.99</t>
+  </si>
+  <si>
+    <t>61.69</t>
+  </si>
+  <si>
+    <t>45.93</t>
+  </si>
+  <si>
+    <t>48.83</t>
+  </si>
+  <si>
+    <t>53.67</t>
+  </si>
+  <si>
+    <t>48.17</t>
+  </si>
+  <si>
+    <t>31.68</t>
+  </si>
+  <si>
+    <t>31.67</t>
+  </si>
+  <si>
+    <t>64.50</t>
+  </si>
+  <si>
+    <t>53.54</t>
+  </si>
+  <si>
+    <t>60.03</t>
+  </si>
+  <si>
+    <t>58.59</t>
+  </si>
+  <si>
+    <t>43.37</t>
+  </si>
+  <si>
+    <t>42.71</t>
+  </si>
+  <si>
+    <t>33.05</t>
+  </si>
+  <si>
+    <t>49.41</t>
+  </si>
+  <si>
+    <t>37.97</t>
+  </si>
+  <si>
+    <t>39.10</t>
+  </si>
+  <si>
+    <t>48.24</t>
+  </si>
+  <si>
+    <t>33.63</t>
+  </si>
+  <si>
+    <t>53.49</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>47.41</t>
+  </si>
+  <si>
+    <t>32.54</t>
+  </si>
+  <si>
+    <t>46.83</t>
+  </si>
+  <si>
+    <t>36.87</t>
+  </si>
+  <si>
+    <t>38.67</t>
+  </si>
+  <si>
+    <t>16.65</t>
+  </si>
+  <si>
+    <t>28.46</t>
+  </si>
+  <si>
+    <t>26.83</t>
+  </si>
+  <si>
+    <t>21.02</t>
+  </si>
+  <si>
+    <t>30.12</t>
+  </si>
+  <si>
+    <t>40.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Product attractiveness (Perceived)    </t>
+  </si>
+  <si>
+    <t>76.51</t>
+  </si>
+  <si>
+    <t>84.14</t>
+  </si>
+  <si>
+    <t>39.85</t>
+  </si>
+  <si>
+    <t>91.10</t>
+  </si>
+  <si>
+    <t>82.42</t>
+  </si>
+  <si>
+    <t>96.32</t>
+  </si>
+  <si>
+    <t>53.10</t>
+  </si>
+  <si>
+    <t>93.54</t>
+  </si>
+  <si>
+    <t>42.22</t>
+  </si>
+  <si>
+    <t>87.16</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>58.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Evaluation of the Promotional Impact of Salesforce    </t>
+  </si>
+  <si>
+    <t>A1 - Maison Sigma</t>
+  </si>
+  <si>
+    <t>A2 - Odisseum</t>
+  </si>
+  <si>
+    <t>A3 - AirFlow Six</t>
+  </si>
+  <si>
+    <t>A4 - Electron</t>
+  </si>
+  <si>
+    <t>94.44</t>
+  </si>
+  <si>
+    <t>81.55</t>
+  </si>
+  <si>
+    <t>95.32</t>
+  </si>
+  <si>
+    <t>63.21</t>
+  </si>
+  <si>
+    <t>87.01</t>
+  </si>
+  <si>
+    <t>96.82</t>
+  </si>
+  <si>
     <t>0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Product Improvements    </t>
-  </si>
-  <si>
-    <t>Improvements</t>
-  </si>
-  <si>
-    <t>Company 1 - A</t>
-  </si>
-  <si>
-    <t>Company 2 - A</t>
-  </si>
-  <si>
-    <t>Company 3 - A</t>
-  </si>
-  <si>
-    <t>Company 4 - A</t>
-  </si>
-  <si>
-    <t>STAINLESS MATERIAL</t>
-  </si>
-  <si>
-    <t>​</t>
-  </si>
-  <si>
-    <t>RECYCLABLE MATERIALS</t>
-  </si>
-  <si>
-    <t>ENERGY EFFICIENCY</t>
-  </si>
-  <si>
-    <t>LIGHTER AND MORE COMPACT</t>
-  </si>
-  <si>
-    <t>IMPACT RESISTANCE</t>
-  </si>
-  <si>
-    <t>NOISE REDUCTION</t>
-  </si>
-  <si>
-    <t>IMPROVED BATTERY CAPACITY</t>
-  </si>
-  <si>
-    <t>SELF-CLEANING</t>
-  </si>
-  <si>
-    <t>SPEED SETTINGS</t>
-  </si>
-  <si>
-    <t>DIGITAL CONTROLS</t>
-  </si>
-  <si>
-    <t>VOICE ASSISTANCE INTEGRATION</t>
-  </si>
-  <si>
-    <t>AUTOMATION AND PROGRAMMABILITY</t>
-  </si>
-  <si>
-    <t>MULTIFUNCTIONAL ACCESSORIES</t>
-  </si>
-  <si>
-    <t>MAPPING TECHNOLOGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Product Awareness Percentage Per Segment    </t>
-  </si>
-  <si>
-    <t>42.39</t>
-  </si>
-  <si>
-    <t>28.72</t>
-  </si>
-  <si>
-    <t>34.58</t>
-  </si>
-  <si>
-    <t>22.16</t>
-  </si>
-  <si>
-    <t>26.84</t>
-  </si>
-  <si>
-    <t>23.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Product attractiveness (Perceived)    </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Evaluation of the Promotional Impact of Salesforce    </t>
-  </si>
-  <si>
-    <t>Company 1</t>
-  </si>
-  <si>
-    <t>Company 2</t>
-  </si>
-  <si>
-    <t>Company 3</t>
-  </si>
-  <si>
-    <t>Company 4</t>
-  </si>
-  <si>
-    <t>94.44</t>
-  </si>
-  <si>
-    <t>81.55</t>
-  </si>
-  <si>
-    <t>95.32</t>
   </si>
 </sst>
 </file>
@@ -223,11 +553,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -361,11 +690,13 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -776,7 +1107,7 @@
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1116,21 +1447,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7283C51-97C8-40A0-B2DD-3D145AD54E13}">
-  <dimension ref="A1:F83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E965A011-2721-4A5B-98FB-F2F6CB2D3503}">
+  <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1474,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1486,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1498,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1507,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1197,104 +1532,224 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1308,222 +1763,318 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1539,369 +2090,441 @@
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1909,12 +2532,12 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
@@ -1928,228 +2551,519 @@
       <c r="F51" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>53</v>
+        <v>128</v>
+      </c>
+      <c r="E56" s="2">
+        <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
+      </c>
+      <c r="E58" s="2">
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>26</v>
+        <v>130</v>
+      </c>
+      <c r="E60" s="2">
+        <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>26</v>
+        <v>146</v>
+      </c>
+      <c r="E61" s="2">
+        <v>20</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>7</v>
@@ -2163,341 +3077,605 @@
       <c r="F64" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="2">
+        <v>15</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="2">
+        <v>15</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="2">
+        <v>15</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="2">
+        <v>15</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B69" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
+      </c>
+      <c r="E69" s="2">
+        <v>15</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
+      </c>
+      <c r="D78" s="2">
+        <v>85</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
+      </c>
+      <c r="D79" s="2">
+        <v>85</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
+      </c>
+      <c r="D80" s="2">
+        <v>85</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>26</v>
+        <v>172</v>
+      </c>
+      <c r="D81" s="2">
+        <v>85</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>26</v>
+        <v>172</v>
+      </c>
+      <c r="D82" s="2">
+        <v>85</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A76:E76"/>
+    <mergeCell ref="L76:L80"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>